--- a/Microplastic_Data_Portal-main/data/Manuscripts.xlsx
+++ b/Microplastic_Data_Portal-main/data/Manuscripts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahhapich/Desktop/Microplastics in Drinking Water/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D8ACCA2-931B-F846-B5BA-516396E2E420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F074C58B-70C2-E945-8008-92D7E2C7FA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="11200" windowHeight="16880" xr2:uid="{C3B03CE3-0244-D74D-8763-9D44EA2F7D48}"/>
+    <workbookView xWindow="0" yWindow="6220" windowWidth="11200" windowHeight="16880" xr2:uid="{C3B03CE3-0244-D74D-8763-9D44EA2F7D48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="206">
   <si>
     <t>DOI (DOI of manuscript being referenced)</t>
   </si>
@@ -320,13 +320,346 @@
   </si>
   <si>
     <t>Positive and negative lab controls</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0236838</t>
+  </si>
+  <si>
+    <t>3 um; 0.2 um; 5 um; 0.22 um; 0.45 um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydrochloric acid; wet peroxide oxidation; acetic acid; </t>
+  </si>
+  <si>
+    <t>Stainless steel; membrane; anodisc; aluminum oxide</t>
+  </si>
+  <si>
+    <t>FTIR; Raman; m-FTIR; m-Raman</t>
+  </si>
+  <si>
+    <t>10.11001/jksww.2020.34.5.357</t>
+  </si>
+  <si>
+    <t>10.1016/j.scitotenv.2019.02.431</t>
+  </si>
+  <si>
+    <t>FTIR; Raman</t>
+  </si>
+  <si>
+    <t>10.1016/j.coesh.2018.12.001</t>
+  </si>
+  <si>
+    <t>10.1016/j.watres.2019.02.054</t>
+  </si>
+  <si>
+    <t>10.1016/j.cej.2020.128381</t>
+  </si>
+  <si>
+    <t>10.1016/j.jece.2020.104527</t>
+  </si>
+  <si>
+    <t>0.45-50 um</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>10.1016/j.chemosphere.2020.126612</t>
+  </si>
+  <si>
+    <t>trawl; glass filter; PTFE membrane filter; plankton net; nylon filter; sieve</t>
+  </si>
+  <si>
+    <t>1-500 um</t>
+  </si>
+  <si>
+    <t>ATR; FTIR; Raman</t>
+  </si>
+  <si>
+    <t>visual; stereomicroscope; microscope; SEM</t>
+  </si>
+  <si>
+    <t>10.1016/j.impact.2021.100302</t>
+  </si>
+  <si>
+    <t>calcium magnesium dissolusion; Fe H2O2; iron precipitates; HCl; H2O2;</t>
+  </si>
+  <si>
+    <t>polycarbonate; PTFE; Al3O3; Au coated polycarbonate; Al oxide</t>
+  </si>
+  <si>
+    <t>0.4 um; 5 um; 0.2 um; 0.22 um</t>
+  </si>
+  <si>
+    <t>FTIR; Raman; SEM-EDX</t>
+  </si>
+  <si>
+    <t>10.1007/s11783-021-1492-5</t>
+  </si>
+  <si>
+    <t>Literature review; drinking water treatment plants</t>
+  </si>
+  <si>
+    <t>10.1016/j.envres.2022.112855</t>
+  </si>
+  <si>
+    <t>Groundwater drinking water</t>
+  </si>
+  <si>
+    <t>H2O2</t>
+  </si>
+  <si>
+    <t>polycarbonate membrane</t>
+  </si>
+  <si>
+    <t>5 um</t>
+  </si>
+  <si>
+    <t>10.1021/acs.est.9b01517</t>
+  </si>
+  <si>
+    <t>Bottled water and tap water; food</t>
+  </si>
+  <si>
+    <t>10.1016/j.envpol.2021.117524</t>
+  </si>
+  <si>
+    <t>Drinking water</t>
+  </si>
+  <si>
+    <t>stainless steel</t>
+  </si>
+  <si>
+    <t>10.21203/rs.3.rs-242504/v1</t>
+  </si>
+  <si>
+    <t>Fe H2O2</t>
+  </si>
+  <si>
+    <t>10.1016/j.sciotenv.2020.143421</t>
+  </si>
+  <si>
+    <t>HCl</t>
+  </si>
+  <si>
+    <t>PC filter</t>
+  </si>
+  <si>
+    <t>1.2 um</t>
+  </si>
+  <si>
+    <t>EMCCD</t>
+  </si>
+  <si>
+    <t>10.1016/j.etap.2018.12.009</t>
+  </si>
+  <si>
+    <t>Reservoir water</t>
+  </si>
+  <si>
+    <t>978-82-414-0427-6</t>
+  </si>
+  <si>
+    <t>H2O2/H2SO4</t>
+  </si>
+  <si>
+    <t>Bottled water</t>
+  </si>
+  <si>
+    <t>10.1016/j.envpol.2020.114227</t>
+  </si>
+  <si>
+    <t>Public water fountains</t>
+  </si>
+  <si>
+    <t>nitrocellulose filter paper</t>
+  </si>
+  <si>
+    <t>0.22 um</t>
+  </si>
+  <si>
+    <t>Procedural blanks; filters analyzed before; cotton used; laminar flow hood used</t>
+  </si>
+  <si>
+    <t>10.1007/s11356-021-12467-y</t>
+  </si>
+  <si>
+    <t>100 um; 20 um; 10 um; 5 um</t>
+  </si>
+  <si>
+    <t>micro raman</t>
+  </si>
+  <si>
+    <t>Process blanks</t>
+  </si>
+  <si>
+    <t>10.3390/w12113115</t>
+  </si>
+  <si>
+    <t>7 um</t>
+  </si>
+  <si>
+    <t>Nile Red; flouresence microscopy</t>
+  </si>
+  <si>
+    <t>Referenced known particles under flouresence scope</t>
+  </si>
+  <si>
+    <t>10.3390/environments8120138</t>
+  </si>
+  <si>
+    <t>Drinking water type used by participants (study also included stool samples and food samples from participants)</t>
+  </si>
+  <si>
+    <t>Fenton's; HNO3</t>
+  </si>
+  <si>
+    <t>Cellulose nitrate-cellulose acetate</t>
+  </si>
+  <si>
+    <t>10.1016/j.cotox.2021.09.003</t>
+  </si>
+  <si>
+    <t>Review paper; Tap and bottled water</t>
+  </si>
+  <si>
+    <t>10.1016/j.jwpe.2020.101884</t>
+  </si>
+  <si>
+    <t>Gold plated polycarbonate</t>
+  </si>
+  <si>
+    <t>0.4 um</t>
+  </si>
+  <si>
+    <t>micro FTIR</t>
+  </si>
+  <si>
+    <t>laminar flow; cotton only in lab</t>
+  </si>
+  <si>
+    <t>10.1016/j.watres.2021.117417</t>
+  </si>
+  <si>
+    <t>cellulose acetate membrane</t>
+  </si>
+  <si>
+    <t>Zetasizer Nano ZS</t>
+  </si>
+  <si>
+    <t>10.1007/s11356-021-13220-1</t>
+  </si>
+  <si>
+    <t>stainless steel; membrane</t>
+  </si>
+  <si>
+    <t>3.5 mm; 1 mm; 300 um; 100 um; 20 um; 1 um</t>
+  </si>
+  <si>
+    <t>Steriomicroscopy; micro FTIR</t>
+  </si>
+  <si>
+    <t>3 procedural blanks; black filters washed with reagents analyzed</t>
+  </si>
+  <si>
+    <t>10.1016/j.cofs.2021.02.011</t>
+  </si>
+  <si>
+    <t>RM; micro FTIR; Nile Red; SEM</t>
+  </si>
+  <si>
+    <t>Procedural blanks</t>
+  </si>
+  <si>
+    <t>10.22630/PNIKS.2019.28.4.59</t>
+  </si>
+  <si>
+    <t>Fire hydrants; network water points; water holding tanks</t>
+  </si>
+  <si>
+    <t>cellulose</t>
+  </si>
+  <si>
+    <t>2-4 um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rose Bengal stain; visual; stereoscope </t>
+  </si>
+  <si>
+    <t>Review; Drinking water from treatment facilities</t>
+  </si>
+  <si>
+    <t>10.3390/app112110109</t>
+  </si>
+  <si>
+    <t>10.1016/j.jhazmat.2021.125347</t>
+  </si>
+  <si>
+    <t>glass microfiber</t>
+  </si>
+  <si>
+    <t>Procedural blanks; plastic equiptment minimized; cotton only worn in lab</t>
+  </si>
+  <si>
+    <t>10.1016/j.scitotenv.2020.140236</t>
+  </si>
+  <si>
+    <t>H2SO4</t>
+  </si>
+  <si>
+    <t>PTFE membrane; Al2O3</t>
+  </si>
+  <si>
+    <t>0.2 um</t>
+  </si>
+  <si>
+    <t>SEM; micro Raman</t>
+  </si>
+  <si>
+    <t>10.1016/j.chemosphere.2020.126493</t>
+  </si>
+  <si>
+    <t>Procedural blanks; laminar flow table</t>
+  </si>
+  <si>
+    <t>10.1016/j.scitotenv.2019.134520</t>
+  </si>
+  <si>
+    <t>0.5 um; 0.22 um</t>
+  </si>
+  <si>
+    <t>DWTP</t>
+  </si>
+  <si>
+    <t>Alumina filter</t>
+  </si>
+  <si>
+    <t>Plastic equiptment minimized</t>
+  </si>
+  <si>
+    <t>10.1007/s11356-021-13769-x</t>
+  </si>
+  <si>
+    <t>10.1016/j.scitotenv.2021.148001</t>
+  </si>
+  <si>
+    <t>Drinking water canal</t>
+  </si>
+  <si>
+    <t>10.1016/j.scitotenv.2022.154015</t>
+  </si>
+  <si>
+    <t>Al2O3</t>
+  </si>
+  <si>
+    <t>Procedural blanks; plastic equiptment minimized</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -338,6 +671,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -363,10 +703,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ED786C-A5DE-5A46-A159-2F2BA9CB5F94}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="111" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1191,6 +1533,913 @@
         <v>94</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" t="s">
+        <v>181</v>
+      </c>
+      <c r="F46" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
+        <v>154</v>
+      </c>
+      <c r="G48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" t="s">
+        <v>191</v>
+      </c>
+      <c r="F49" t="s">
+        <v>192</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>191</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" t="s">
+        <v>192</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" t="s">
+        <v>191</v>
+      </c>
+      <c r="F52" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" t="s">
+        <v>202</v>
+      </c>
+      <c r="C53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" t="s">
+        <v>191</v>
+      </c>
+      <c r="F54" t="s">
+        <v>165</v>
+      </c>
+      <c r="G54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
